--- a/visitor.xlsx
+++ b/visitor.xlsx
@@ -123,7 +123,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>https://pp.vk.me/c7003/v7003978/1ed9/yoeGXOWmW-M.jpg</t>
+    <t>https://pp.vk.me/c7003/v7003978/1ed9/yoeGXOWmW-M</t>
   </si>
   <si>
     <t>https://cs7058.vk.me/c540107/v540107859/2db60/Db-kBdt2GJQ.jpg</t>
@@ -272,51 +272,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2735382" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -563,7 +520,6 @@
     <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/visitor.xlsx
+++ b/visitor.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Image links</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Dmytro</t>
-  </si>
-  <si>
-    <t>Polishchuk</t>
+    <t>Pavel</t>
+  </si>
+  <si>
+    <t>Durov</t>
   </si>
   <si>
     <t>ab-cd-ef-01-23-45</t>
@@ -78,31 +78,28 @@
     <t>male</t>
   </si>
   <si>
-    <t>dimonick@bk.ru</t>
-  </si>
-  <si>
-    <t>+380936667771</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Kiev</t>
+    <t>pasha@bk.ru</t>
+  </si>
+  <si>
+    <t>+380856667771</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
   <si>
     <t>mobile/Android</t>
   </si>
   <si>
-    <t>https://vk.com/polya90</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/dmitriy.polishchuk.94</t>
+    <t>https://vk.com/id1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
   </si>
   <si>
     <t>,kf ,fksdf ,sadf asdkf ,sdfkkasdf, aksdf ,kads,kij , ,sdk,f asidfjiruhiuwhfW FWFYUWG YUW kjdhjs fheq fb sjhfreq fyuw	 k</t>
   </si>
   <si>
-    <t>student</t>
+    <t>programming</t>
   </si>
   <si>
     <t>freelance</t>
@@ -123,7 +120,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>https://pp.vk.me/c7003/v7003978/1ed9/yoeGXOWmW-M</t>
+    <t>https://pp.vk.me/c7003/v7003978/1ed9/yoeGXOWmW-M.jpg</t>
   </si>
   <si>
     <t>https://cs7058.vk.me/c540107/v540107859/2db60/Db-kBdt2GJQ.jpg</t>
@@ -132,7 +129,7 @@
     <t>https://pp.vk.me/c7011/v7011852/40bb5/w-sRUUGU4ik.jpg</t>
   </si>
   <si>
-    <t>25.05.1990</t>
+    <t>12.12.1980</t>
   </si>
 </sst>
 </file>
@@ -272,8 +269,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2735382" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -347,7 +387,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7"/>
@@ -391,7 +431,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11"/>
@@ -402,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12"/>
@@ -413,7 +453,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="2"/>
@@ -424,7 +464,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -432,7 +472,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.0" customHeight="true">
@@ -446,43 +486,43 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -520,6 +560,7 @@
     <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -541,17 +582,17 @@
     </row>
     <row r="3">
       <c r="B3" t="s" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
